--- a/biology/Botanique/Atrichoseris_platyphylla/Atrichoseris_platyphylla.xlsx
+++ b/biology/Botanique/Atrichoseris_platyphylla/Atrichoseris_platyphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atrichoseris platyphylla est une espèce de plante à fleurs de la famille des Asteraceae originaire du sud-ouest des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée de 30 à 70 cm de hauteur possède à la base une rosette de feuilles de 3 à 10 cm de longueur, de couleur grisâtre, tachetées de vert et parfois de pourpre. De forme ovale, ces feuilles ont une bordure dentelée inégale, garnie par place de petites pointes épineuses. De cette rosette part la tige florale (ou parfois plusieurs), longue et frêle, lisse, grise, qui se ramifie dans sa partie supérieure et ne porte que quelques feuilles très petites[1].
-Appareil reproducteur
-La floraison a lieu entre février et mai. L'inflorescence est un capitule blanc ou très légèrement rosé, situé à l'extrémité de chaque ramification des tiges florales. Chaque capitule, de 2,5 à 5 cm de diamètre, ne contient que des fleurons ligulés. Chaque ligule est indenté en 5 languettes ; les plus externes sont plus longs que les plus internes.
-Les fruits sont des akènes en forme de massue pentagonale et ne présentent aucun poil[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée de 30 à 70 cm de hauteur possède à la base une rosette de feuilles de 3 à 10 cm de longueur, de couleur grisâtre, tachetées de vert et parfois de pourpre. De forme ovale, ces feuilles ont une bordure dentelée inégale, garnie par place de petites pointes épineuses. De cette rosette part la tige florale (ou parfois plusieurs), longue et frêle, lisse, grise, qui se ramifie dans sa partie supérieure et ne porte que quelques feuilles très petites.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse dans les zones basses et sablonneuses de certaines régions désertiques du sud-ouest des États-Unis (du sud de la Californie ou sud-ouest de l'Utah et au nord-ouest de l'Arizona).
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre février et mai. L'inflorescence est un capitule blanc ou très légèrement rosé, situé à l'extrémité de chaque ramification des tiges florales. Chaque capitule, de 2,5 à 5 cm de diamètre, ne contient que des fleurons ligulés. Chaque ligule est indenté en 5 languettes ; les plus externes sont plus longs que les plus internes.
+Les fruits sont des akènes en forme de massue pentagonale et ne présentent aucun poil.
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les zones basses et sablonneuses de certaines régions désertiques du sud-ouest des États-Unis (du sud de la Californie ou sud-ouest de l'Utah et au nord-ouest de l'Arizona).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atrichoseris_platyphylla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atrichoseris_platyphylla</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre, Atrichoseris, est formé de plusieurs racines grecques (a privatif, τρίχα et σέρις) signifiant chicorée sans poil, et platyphylla signifie à feuilles plates[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre, Atrichoseris, est formé de plusieurs racines grecques (a privatif, τρίχα et σέρις) signifiant chicorée sans poil, et platyphylla signifie à feuilles plates.
 </t>
         </is>
       </c>
